--- a/data/Thongso.xlsx
+++ b/data/Thongso.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PM_PYTHON\SONGTRANH_WEB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A009C-009D-4F9F-B36F-F6F71355FCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA86019-0318-4C01-9F73-7301C29607F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thongso" sheetId="1" r:id="rId1"/>
-    <sheet name="QHsongtranh2" sheetId="2" r:id="rId2"/>
+    <sheet name="QH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="322">
   <si>
     <t>Thông số</t>
   </si>
@@ -1081,12 +1081,51 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Sông tranh</t>
+  </si>
+  <si>
+    <t>sông bung2</t>
+  </si>
+  <si>
+    <t>sông bung4</t>
+  </si>
+  <si>
+    <t>A vuong</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1166,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1148,7 +1193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1325,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,6 +1435,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3665,218 +3764,853 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35D23F-AE55-4C61-80FD-8DE12D27CACE}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="25"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="29" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
         <v>89.5</v>
       </c>
-      <c r="C2">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D3" s="27">
+        <v>517</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="27">
+        <v>125</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J3" s="27">
+        <v>306</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D4" s="27">
+        <v>520</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="G4" s="27">
+        <v>130</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27">
+        <v>1.48</v>
+      </c>
+      <c r="J4" s="27">
+        <v>310</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>95</v>
       </c>
-      <c r="C4">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D5" s="27">
+        <v>525</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="G5" s="27">
+        <v>135</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="J5" s="27">
+        <v>320</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27">
+        <v>11.96</v>
+      </c>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D6" s="27">
+        <v>530</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
+        <v>1.31</v>
+      </c>
+      <c r="G6" s="27">
+        <v>140</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="J6" s="27">
+        <v>330</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27">
+        <v>38.9</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <v>105</v>
       </c>
-      <c r="C6">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27">
         <v>12.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D7" s="27">
+        <v>535</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="27">
+        <v>145</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27">
+        <v>9.4429999999999996</v>
+      </c>
+      <c r="J7" s="27">
+        <v>340</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
         <v>110</v>
       </c>
-      <c r="C7">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27">
         <v>24.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D8" s="27">
+        <v>540</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
+        <v>4.09</v>
+      </c>
+      <c r="G8" s="27">
+        <v>150</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27">
+        <v>14.02</v>
+      </c>
+      <c r="J8" s="27">
+        <v>345</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27">
+        <v>100.13</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>115</v>
       </c>
-      <c r="C8">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27">
         <v>43.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D9" s="27">
+        <v>545</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
+        <v>6.11</v>
+      </c>
+      <c r="G9" s="27">
+        <v>155</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27">
+        <v>19.89</v>
+      </c>
+      <c r="J9" s="27">
+        <v>350</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27">
+        <v>126.01</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <v>120</v>
       </c>
-      <c r="C9">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D10" s="27">
+        <v>550</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
+        <v>8.64</v>
+      </c>
+      <c r="G10" s="27">
+        <v>160</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27">
+        <v>27.24</v>
+      </c>
+      <c r="J10" s="27">
+        <v>355</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27">
+        <v>154.72999999999999</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <v>125</v>
       </c>
-      <c r="C10">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
         <v>93.64</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D11" s="27">
+        <v>555</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27">
+        <v>11.81</v>
+      </c>
+      <c r="G11" s="27">
+        <v>165</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="J11" s="27">
+        <v>360</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27">
+        <v>186.29</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <v>130</v>
       </c>
-      <c r="C11">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27">
         <v>126.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D12" s="27">
+        <v>560</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
+        <v>15.76</v>
+      </c>
+      <c r="G12" s="27">
+        <v>170</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27">
+        <v>50.18</v>
+      </c>
+      <c r="J12" s="27">
+        <v>365</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27">
+        <v>220.9</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
         <v>135</v>
       </c>
-      <c r="C12">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
         <v>164.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D13" s="27">
+        <v>565</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27">
+        <v>20.39</v>
+      </c>
+      <c r="G13" s="27">
+        <v>175</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27">
+        <v>67.72</v>
+      </c>
+      <c r="J13" s="27">
+        <v>370</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27">
+        <v>258.72000000000003</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
         <v>140</v>
       </c>
-      <c r="C13">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27">
         <v>207.97</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D14" s="27">
+        <v>570</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27">
+        <v>25.8</v>
+      </c>
+      <c r="G14" s="27">
+        <v>180</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>88.99</v>
+      </c>
+      <c r="J14" s="27">
+        <v>375</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27">
+        <v>299.63</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <v>145</v>
       </c>
-      <c r="C14">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
         <v>257.33999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D15" s="27">
+        <v>575</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="G15" s="27">
+        <v>185</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27">
+        <v>114.6</v>
+      </c>
+      <c r="J15" s="27">
+        <v>380</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27">
+        <v>343.55</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <v>150</v>
       </c>
-      <c r="C15">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27">
         <v>313.95999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D16" s="27">
+        <v>580</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="G16" s="27">
+        <v>190</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="J16" s="27">
+        <v>385</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27">
+        <v>390.64</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>155</v>
       </c>
-      <c r="C16">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27">
         <v>379.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D17" s="27">
+        <v>585</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
+        <v>47.78</v>
+      </c>
+      <c r="G17" s="27">
+        <v>195</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27">
+        <v>182.8</v>
+      </c>
+      <c r="J17" s="27">
+        <v>390</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27">
+        <v>441.01</v>
+      </c>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <v>160</v>
       </c>
-      <c r="C17">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27">
         <v>452.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D18" s="27">
+        <v>590</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27">
+        <v>57.38</v>
+      </c>
+      <c r="G18" s="27">
+        <v>200</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27">
+        <v>226.4</v>
+      </c>
+      <c r="J18" s="27">
+        <v>395</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27">
+        <v>494.62</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <v>165</v>
       </c>
-      <c r="C18">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27">
         <v>534.80999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D19" s="27">
+        <v>595</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="G19" s="27">
+        <v>205</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27">
+        <v>276.8</v>
+      </c>
+      <c r="J19" s="27">
+        <v>400</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27">
+        <v>551.39</v>
+      </c>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>170</v>
       </c>
-      <c r="C19">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27">
         <v>626.83000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="D20" s="27">
+        <v>600</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27">
+        <v>80.52</v>
+      </c>
+      <c r="G20" s="27">
+        <v>210</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27">
+        <v>334.4</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>175</v>
       </c>
-      <c r="C20">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27">
         <v>729.14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D21" s="27">
+        <v>605</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
+        <v>94.32</v>
+      </c>
+      <c r="G21" s="27">
+        <v>215</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27">
+        <v>399.3</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>180</v>
       </c>
-      <c r="C21">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27">
         <v>842.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="D22" s="27">
+        <v>610</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27">
+        <v>109.8</v>
+      </c>
+      <c r="G22" s="27">
+        <v>220</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27">
+        <v>471.7</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>185</v>
       </c>
-      <c r="C22">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27">
         <v>966.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D23" s="27">
+        <v>615</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27">
+        <v>127.1</v>
+      </c>
+      <c r="G23" s="27">
+        <v>225</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27">
+        <v>549.9</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <v>190</v>
       </c>
-      <c r="C23">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27">
         <v>1102.8699999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D24" s="27">
+        <v>620</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="G24" s="27">
+        <v>230</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27">
+        <v>636.9</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <v>195</v>
       </c>
-      <c r="C24">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27">
         <v>1252.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27">
+        <v>235</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27">
+        <v>735.1</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>200</v>
       </c>
-      <c r="C25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27">
         <v>1414.73</v>
       </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27">
+        <v>240</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27">
+        <v>841.8</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27">
+        <v>245</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27">
+        <v>957.8</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+    </row>
+    <row r="28" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28">
+        <v>250</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28">
+        <v>1084</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Thongso.xlsx
+++ b/data/Thongso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PM_PYTHON\SONGTRANH_WEB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA86019-0318-4C01-9F73-7301C29607F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE47CD0-8979-4D22-A80E-C1AE581A53C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thongso" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Đắk Mi 4</t>
-  </si>
-  <si>
-    <t>ông Bung 4</t>
   </si>
   <si>
     <t>Sông Bung 4A</t>
@@ -1119,6 +1116,9 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>Sông Bung 4</t>
   </si>
 </sst>
 </file>
@@ -1430,15 +1430,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,6 +1440,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1744,7 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
@@ -1759,13 +1759,13 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1776,65 +1776,65 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="V1" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="19"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="19"/>
@@ -1849,10 +1849,10 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="9">
         <v>682</v>
@@ -1874,7 +1874,7 @@
       <c r="F3" s="9">
         <v>1.125</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="20">
         <v>1.448</v>
       </c>
       <c r="H3" s="9">
@@ -1884,13 +1884,13 @@
         <v>2369</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="9">
         <v>2.3860000000000001</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="9">
         <v>537</v>
@@ -1905,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="9">
         <v>1.45</v>
@@ -1914,13 +1914,13 @@
         <v>1.61</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1928,67 +1928,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="9">
         <v>119</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,13 +1996,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="20"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
@@ -2021,16 +2021,16 @@
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="20"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="9">
+      <c r="G6" s="20">
         <v>15.427</v>
       </c>
       <c r="H6" s="9"/>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="7" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="9">
         <v>7.12</v>
@@ -2068,7 +2068,7 @@
       <c r="F7" s="9">
         <v>11.4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="20">
         <v>12.007999999999999</v>
       </c>
       <c r="H7" s="9">
@@ -2103,18 +2103,18 @@
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="20"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9">
         <v>10.496</v>
       </c>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="9">
         <v>5.72</v>
@@ -2172,7 +2172,7 @@
       <c r="F9" s="9">
         <v>8.84</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9">
         <v>13.222</v>
@@ -2205,18 +2205,18 @@
     </row>
     <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="20"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9">
         <v>9.0860000000000003</v>
       </c>
@@ -2261,18 +2261,18 @@
     </row>
     <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="20"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="20"/>
@@ -2293,16 +2293,16 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="20"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="20"/>
@@ -2324,37 +2324,37 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="M13" s="9">
         <v>450</v>
@@ -2366,19 +2366,19 @@
         <v>359</v>
       </c>
       <c r="P13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="U13" s="9">
         <v>340</v>
@@ -2392,37 +2392,37 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="K14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="9">
         <v>445</v>
@@ -2437,16 +2437,16 @@
         <v>105</v>
       </c>
       <c r="Q14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="U14" s="9">
         <v>319</v>
@@ -2460,14 +2460,14 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="20"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>81</v>
+      <c r="G15" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -2490,41 +2490,41 @@
         <v>4</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
@@ -2536,47 +2536,47 @@
         <v>5</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="20"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="20"/>
       <c r="K17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="V17" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,37 +2584,37 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -2626,47 +2626,47 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="20"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="V19" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2674,21 +2674,21 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="20"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="20"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -2706,40 +2706,40 @@
         <v>9</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="N21" s="10">
         <v>1611</v>
@@ -2748,25 +2748,25 @@
         <v>5</v>
       </c>
       <c r="P21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="R21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="T21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="U21" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="V21" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,67 +2774,67 @@
         <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="K22" s="9">
         <v>0</v>
       </c>
       <c r="L22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="O22" s="10">
         <v>2304</v>
       </c>
       <c r="P22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="T22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="V22" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2842,81 +2842,81 @@
         <v>11</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="F23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="O23" s="10">
         <v>2696</v>
       </c>
       <c r="P23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="T23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="V23" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="20"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="20"/>
@@ -2938,171 +2938,171 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>174</v>
-      </c>
       <c r="F25" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="F26" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="K26" s="9">
         <v>50</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" s="9">
         <v>458</v>
       </c>
       <c r="N26" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="R26" s="9" t="s">
+      <c r="S26" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="T26" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="T26" s="9" t="s">
+      <c r="U26" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="V26" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="M27" s="9">
         <v>25</v>
@@ -3114,58 +3114,58 @@
         <v>30</v>
       </c>
       <c r="P27" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="R27" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="S27" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="T27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="T27" s="9" t="s">
+      <c r="U27" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="V27" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3179,22 +3179,22 @@
         <v>131</v>
       </c>
       <c r="Q28" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="R28" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="T28" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="U28" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="V28" s="11" t="s">
         <v>219</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3202,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="20"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="20"/>
@@ -3227,13 +3227,13 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="D30" s="9">
         <v>3</v>
@@ -3244,7 +3244,7 @@
       <c r="F30" s="9">
         <v>5</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="20">
         <v>6</v>
       </c>
       <c r="H30" s="9">
@@ -3283,90 +3283,90 @@
     </row>
     <row r="31" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="R31" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="9">
         <v>363</v>
       </c>
       <c r="E32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>245</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -3382,15 +3382,15 @@
         <v>57</v>
       </c>
       <c r="R32" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="S32" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,13 +3398,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="20"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="20"/>
@@ -3423,26 +3423,26 @@
     </row>
     <row r="34" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="20"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="20"/>
       <c r="K34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="M34" s="9">
         <v>450</v>
@@ -3454,37 +3454,37 @@
         <v>359</v>
       </c>
       <c r="P34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="20"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="20"/>
@@ -3495,16 +3495,16 @@
         <v>60</v>
       </c>
       <c r="M35" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="O35" s="9">
         <v>144</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="9">
         <v>10</v>
@@ -3512,27 +3512,27 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="20"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="20"/>
@@ -3554,43 +3554,43 @@
         <v>1</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="F37" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N37" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="O37" s="9">
         <v>76</v>
@@ -3602,19 +3602,19 @@
         <v>140</v>
       </c>
       <c r="R37" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="S37" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="T37" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="U37" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="U37" s="9" t="s">
-        <v>274</v>
-      </c>
       <c r="V37" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3622,37 +3622,37 @@
         <v>2</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="F38" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="K38" s="9">
         <v>29</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M38" s="9">
         <v>30</v>
@@ -3670,19 +3670,19 @@
         <v>18</v>
       </c>
       <c r="R38" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="T38" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="S38" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="T38" s="9" t="s">
+      <c r="U38" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="U38" s="9" t="s">
-        <v>287</v>
-      </c>
       <c r="V38" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -3690,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="D39" s="16">
         <v>2</v>
@@ -3704,7 +3704,7 @@
       <c r="F39" s="16">
         <v>2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="21">
         <v>2</v>
       </c>
       <c r="H39" s="16">
@@ -3766,842 +3766,842 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35D23F-AE55-4C61-80FD-8DE12D27CACE}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:Y28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>89.5</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24">
         <v>0</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>517</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24">
         <v>0.05</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="24">
         <v>125</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24">
         <v>0.26500000000000001</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <v>306</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="24">
         <v>90</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>520</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24">
         <v>0.11</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="24">
         <v>130</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24">
         <v>1.48</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <v>310</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27">
+      <c r="K4" s="24"/>
+      <c r="L4" s="24">
         <v>0.66</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>95</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24">
         <v>1.02</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <v>525</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
         <v>0.49</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="24">
         <v>135</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24">
         <v>3.4380000000000002</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <v>320</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24">
         <v>11.96</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="24">
         <v>100</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
         <v>4.8</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>530</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
         <v>1.31</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <v>140</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24">
         <v>6.0220000000000002</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>330</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24">
         <v>38.9</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>105</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24">
         <v>12.26</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="24">
         <v>535</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
         <v>2.5</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="24">
         <v>145</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27">
+      <c r="H7" s="24"/>
+      <c r="I7" s="24">
         <v>9.4429999999999996</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>340</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24">
         <v>77.069999999999993</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>110</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24">
         <v>24.99</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>540</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24">
         <v>4.09</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>150</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24">
         <v>14.02</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>345</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27">
+      <c r="K8" s="24"/>
+      <c r="L8" s="24">
         <v>100.13</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>115</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24">
         <v>43.21</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="24">
         <v>545</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>6.11</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>155</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24">
         <v>19.89</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>350</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
         <v>126.01</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>120</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24">
         <v>66.8</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="24">
         <v>550</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
         <v>8.64</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <v>160</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24">
         <v>27.24</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="24">
         <v>355</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24">
         <v>154.72999999999999</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>125</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24">
         <v>93.64</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="24">
         <v>555</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24">
         <v>11.81</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="24">
         <v>165</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24">
         <v>36.909999999999997</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <v>360</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24">
         <v>186.29</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>130</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24">
         <v>126.38</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <v>560</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
         <v>15.76</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>170</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24">
         <v>50.18</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="24">
         <v>365</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24">
         <v>220.9</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>135</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24">
         <v>164.45</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="24">
         <v>565</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
         <v>20.39</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="24">
         <v>175</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27">
+      <c r="H13" s="24"/>
+      <c r="I13" s="24">
         <v>67.72</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="24">
         <v>370</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24">
         <v>258.72000000000003</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>140</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24">
         <v>207.97</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <v>570</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
         <v>25.8</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="24">
         <v>180</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24">
         <v>88.99</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <v>375</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24">
         <v>299.63</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="24">
         <v>145</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24">
         <v>257.33999999999997</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>575</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
         <v>32.090000000000003</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <v>185</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27">
+      <c r="H15" s="24"/>
+      <c r="I15" s="24">
         <v>114.6</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>380</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24">
         <v>343.55</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="24">
         <v>150</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24">
         <v>313.95999999999998</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="24">
         <v>580</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
         <v>39.369999999999997</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <v>190</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24">
         <v>145.69999999999999</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <v>385</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24">
         <v>390.64</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="24">
         <v>155</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24">
         <v>379.04</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>585</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
         <v>47.78</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <v>195</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24">
         <v>182.8</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>390</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24">
         <v>441.01</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="24">
         <v>160</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24">
         <v>452.5</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="24">
         <v>590</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
         <v>57.38</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>200</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27">
+      <c r="H18" s="24"/>
+      <c r="I18" s="24">
         <v>226.4</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="24">
         <v>395</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24">
         <v>494.62</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="24">
         <v>165</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24">
         <v>534.80999999999995</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="24">
         <v>595</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
         <v>68.260000000000005</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="24">
         <v>205</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27">
+      <c r="H19" s="24"/>
+      <c r="I19" s="24">
         <v>276.8</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="24">
         <v>400</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24">
         <v>551.39</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="24">
         <v>170</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24">
         <v>626.83000000000004</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="24">
         <v>600</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24">
         <v>80.52</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="24">
         <v>210</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24">
         <v>334.4</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="24">
         <v>175</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24">
         <v>729.14</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="24">
         <v>605</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
         <v>94.32</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="24">
         <v>215</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27">
+      <c r="H21" s="24"/>
+      <c r="I21" s="24">
         <v>399.3</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="24">
         <v>180</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24">
         <v>842.05</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="24">
         <v>610</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
         <v>109.8</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="24">
         <v>220</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24">
         <v>471.7</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="24">
         <v>185</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24">
         <v>966.1</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="24">
         <v>615</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
         <v>127.1</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="24">
         <v>225</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27">
+      <c r="H23" s="24"/>
+      <c r="I23" s="24">
         <v>549.9</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="24">
         <v>190</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24">
         <v>1102.8699999999999</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="24">
         <v>620</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24">
         <v>146.55000000000001</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="24">
         <v>230</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27">
+      <c r="H24" s="24"/>
+      <c r="I24" s="24">
         <v>636.9</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="24">
         <v>195</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24">
         <v>1252.48</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24">
         <v>235</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24">
         <v>735.1</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="24">
         <v>200</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24">
         <v>1414.73</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24">
         <v>240</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27">
+      <c r="H26" s="24"/>
+      <c r="I26" s="24">
         <v>841.8</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24">
         <v>245</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27">
+      <c r="H27" s="24"/>
+      <c r="I27" s="24">
         <v>957.8</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25">
         <v>250</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25">
         <v>1084</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
